--- a/downloaded_files/EECS306_Tutorial-35883.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35883.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,177 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد فاروق محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد هشام سيد سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Hesham Sayed Salem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد يحى سعد السيد نافع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yehya Saad Nafea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ايه ايمن محمد عبدالمجيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aya Ayman Mohamed Abdelmegid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جني محمد شريف محمود محمد علي جبر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Mohamed Sherif Gabr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روفانا عماد سمير ميشيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rovana Emad Samir Micheal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سامح عبد العظيم محمد على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman sameh abdelazeem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن على احمد حشاد علي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbdulRahman Ali Ahmed Hashad Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد السيد السيد حيدر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohamed Elsayed Elsayed Hayder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي علاء عبدالعزيز نيازي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Alaa Abd Elaziz Niazi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وائل على عمر</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Omar Wael Ali Omar </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>لوجينا شوقي أحمد شحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lujina Shawki Ahmed Shehata</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مارك ماجد ناجح لبيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARK MAGED NAGEH LABIB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد خالد ابواليزيد شلبي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Khaled Abouelyazid Shalaby</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد هاني فوزي محمد الخطيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد يوسف السيد يوسف الشيشى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Yusef Elsayed Elsheshe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم اشرف محمد محمد غمرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Ashraf Mohamed Mohamed Ghamry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى ياسر محمد محمد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Yasser Mohammed Mohammed Amin</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -107,21 +278,35 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -132,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -432,17 +617,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T2"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.250625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.360625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.620625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="5.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.580625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.970625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -510,11 +695,612 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
+      <x:c r="A2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="3">
+        <x:v>45912.869234375</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="s"/>
+      <x:c r="H2" s="2" t="s"/>
+      <x:c r="I2" s="2" t="s"/>
+      <x:c r="J2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s"/>
+      <x:c r="L2" s="2" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
+      <x:c r="P2" s="2" t="s"/>
+      <x:c r="Q2" s="2" t="s"/>
+      <x:c r="R2" s="2" t="s"/>
+      <x:c r="S2" s="2" t="s"/>
+      <x:c r="T2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:20">
+      <x:c r="A3" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="3">
+        <x:v>45906.7659619213</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s"/>
+      <x:c r="L3" s="2" t="s"/>
+      <x:c r="M3" s="2" t="s"/>
+      <x:c r="N3" s="2" t="s"/>
+      <x:c r="O3" s="2" t="s"/>
+      <x:c r="P3" s="2" t="s"/>
+      <x:c r="Q3" s="2" t="s"/>
+      <x:c r="R3" s="2" t="s"/>
+      <x:c r="S3" s="2" t="s"/>
+      <x:c r="T3" s="2" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:20">
+      <x:c r="A4" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="3">
+        <x:v>45907.41445</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s"/>
+      <x:c r="G4" s="2" t="s"/>
+      <x:c r="H4" s="2" t="s"/>
+      <x:c r="I4" s="2" t="s"/>
+      <x:c r="J4" s="2" t="s"/>
+      <x:c r="K4" s="2" t="s"/>
+      <x:c r="L4" s="2" t="s"/>
+      <x:c r="M4" s="2" t="s"/>
+      <x:c r="N4" s="2" t="s"/>
+      <x:c r="O4" s="2" t="s"/>
+      <x:c r="P4" s="2" t="s"/>
+      <x:c r="Q4" s="2" t="s"/>
+      <x:c r="R4" s="2" t="s"/>
+      <x:c r="S4" s="2" t="s"/>
+      <x:c r="T4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:20">
+      <x:c r="A5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="3">
+        <x:v>45913.7462855324</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="L5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="3">
+        <x:v>45912.8785141204</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="2" t="s"/>
+      <x:c r="Q6" s="2" t="s"/>
+      <x:c r="R6" s="2" t="s"/>
+      <x:c r="S6" s="2" t="s"/>
+      <x:c r="T6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>45912.8786267708</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>45912.8597579514</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s"/>
+      <x:c r="G8" s="2" t="s"/>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+      <x:c r="P8" s="2" t="s"/>
+      <x:c r="Q8" s="2" t="s"/>
+      <x:c r="R8" s="2" t="s"/>
+      <x:c r="S8" s="2" t="s"/>
+      <x:c r="T8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45906.6952866551</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45912.8698265857</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45906.6651809838</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45909.4204701389</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45912.8691628472</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45912.8661060185</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45906.6798916319</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45912.8599707523</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45906.6663738079</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45906.6852452546</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45912.8660346875</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45912.8785739236</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35883.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35883.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Jana Mohamed Sherif Gabr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه حسن محمود حسن فرغلى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230319</x:t>
@@ -317,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -868,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.8786267708</x:v>
+        <x:v>45924.0342148495</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.8597579514</x:v>
+        <x:v>45912.8786267708</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6952866551</x:v>
+        <x:v>45912.8597579514</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.8698265857</x:v>
+        <x:v>45906.6952866551</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6651809838</x:v>
+        <x:v>45912.8698265857</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4204701389</x:v>
+        <x:v>45906.6651809838</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.8691628472</x:v>
+        <x:v>45909.4204701389</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8661060185</x:v>
+        <x:v>45912.8691628472</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6798916319</x:v>
+        <x:v>45912.8661060185</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.8599707523</x:v>
+        <x:v>45906.6798916319</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6663738079</x:v>
+        <x:v>45912.8599707523</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45906.6663738079</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.8660346875</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.8785739236</x:v>
+        <x:v>45912.8660346875</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1310,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45912.8785739236</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35883.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35883.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,33 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1220223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد فاروق محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد هشام سيد سالم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Hesham Sayed Salem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد يحى سعد السيد نافع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210205</x:t>
   </x:si>
   <x:si>
@@ -130,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohamed Elsayed Elsayed Hayder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي علاء عبدالعزيز نيازي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Alaa Abd Elaziz Niazi</x:t>
   </x:si>
   <x:si>
     <x:t>1230221</x:t>
@@ -326,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -635,7 +599,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.580625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="46.970625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.760625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -717,7 +681,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45912.869234375</x:v>
+        <x:v>45913.7462855324</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -749,7 +713,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.7659619213</x:v>
+        <x:v>45912.8785141204</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -781,7 +745,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.41445</x:v>
+        <x:v>45924.0342148495</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -813,7 +777,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45913.7462855324</x:v>
+        <x:v>45912.8786267708</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -845,7 +809,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.8785141204</x:v>
+        <x:v>45912.8597579514</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +841,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45924.0342148495</x:v>
+        <x:v>45906.6952866551</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +873,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.8786267708</x:v>
+        <x:v>45912.8698265857</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +905,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.8597579514</x:v>
+        <x:v>45906.6651809838</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +937,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6952866551</x:v>
+        <x:v>45912.8691628472</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +969,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.8698265857</x:v>
+        <x:v>45912.8661060185</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1001,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6651809838</x:v>
+        <x:v>45906.6798916319</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1033,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4204701389</x:v>
+        <x:v>45912.8599707523</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8691628472</x:v>
+        <x:v>45906.6663738079</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.8661060185</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1129,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6798916319</x:v>
+        <x:v>45912.8660346875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1161,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.8599707523</x:v>
+        <x:v>45912.8785739236</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1214,134 +1178,6 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:20">
-      <x:c r="A18" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E18" s="3">
-        <x:v>45906.6663738079</x:v>
-      </x:c>
-      <x:c r="F18" s="2" t="s"/>
-      <x:c r="G18" s="2" t="s"/>
-      <x:c r="H18" s="2" t="s"/>
-      <x:c r="I18" s="2" t="s"/>
-      <x:c r="J18" s="2" t="s"/>
-      <x:c r="K18" s="2" t="s"/>
-      <x:c r="L18" s="2" t="s"/>
-      <x:c r="M18" s="2" t="s"/>
-      <x:c r="N18" s="2" t="s"/>
-      <x:c r="O18" s="2" t="s"/>
-      <x:c r="P18" s="2" t="s"/>
-      <x:c r="Q18" s="2" t="s"/>
-      <x:c r="R18" s="2" t="s"/>
-      <x:c r="S18" s="2" t="s"/>
-      <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45906.6852452546</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45912.8660346875</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45912.8785739236</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35883.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35883.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,15 +94,6 @@
   </x:si>
   <x:si>
     <x:t>AbdulRahman Ali Ahmed Hashad Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد السيد السيد حيدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohamed Elsayed Elsayed Hayder</x:t>
   </x:si>
   <x:si>
     <x:t>1230221</x:t>
@@ -290,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -905,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6651809838</x:v>
+        <x:v>45912.8691628472</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -937,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.8691628472</x:v>
+        <x:v>45912.8661060185</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -969,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.8661060185</x:v>
+        <x:v>45906.6798916319</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1001,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6798916319</x:v>
+        <x:v>45912.8599707523</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1033,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.8599707523</x:v>
+        <x:v>45906.6663738079</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6663738079</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45912.8660346875</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1120,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.8660346875</x:v>
+        <x:v>45912.8785739236</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1146,38 +1137,6 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45912.8785739236</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35883.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35883.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ايه ايمن محمد عبدالمجيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aya Ayman Mohamed Abdelmegid</x:t>
   </x:si>
   <x:si>
     <x:t>1230174</x:t>
@@ -281,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -672,7 +663,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45913.7462855324</x:v>
+        <x:v>45912.8785141204</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -704,7 +695,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45912.8785141204</x:v>
+        <x:v>45924.0342148495</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -736,7 +727,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45924.0342148495</x:v>
+        <x:v>45912.8786267708</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -768,7 +759,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.8786267708</x:v>
+        <x:v>45912.8597579514</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -800,7 +791,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.8597579514</x:v>
+        <x:v>45929.3075362616</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -832,7 +823,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6952866551</x:v>
+        <x:v>45912.8698265857</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -864,7 +855,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.8698265857</x:v>
+        <x:v>45912.8691628472</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -896,7 +887,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.8691628472</x:v>
+        <x:v>45912.8661060185</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +919,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.8661060185</x:v>
+        <x:v>45906.6798916319</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +951,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6798916319</x:v>
+        <x:v>45912.8599707523</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +983,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.8599707523</x:v>
+        <x:v>45906.6663738079</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1015,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6663738079</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1047,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45912.8660346875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1079,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.8660346875</x:v>
+        <x:v>45912.8785739236</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1105,38 +1096,6 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20">
-      <x:c r="A16" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E16" s="3">
-        <x:v>45912.8785739236</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s"/>
-      <x:c r="G16" s="2" t="s"/>
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="2" t="s"/>
-      <x:c r="K16" s="2" t="s"/>
-      <x:c r="L16" s="2" t="s"/>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="2" t="s"/>
-      <x:c r="Q16" s="2" t="s"/>
-      <x:c r="R16" s="2" t="s"/>
-      <x:c r="S16" s="2" t="s"/>
-      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35883.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35883.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>abdelrahman sameh abdelazeem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230058</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن على احمد حشاد علي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbdulRahman Ali Ahmed Hashad Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1230221</x:t>
@@ -272,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -823,7 +814,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.8698265857</x:v>
+        <x:v>45912.8691628472</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -855,7 +846,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.8691628472</x:v>
+        <x:v>45912.8661060185</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -887,7 +878,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.8661060185</x:v>
+        <x:v>45906.6798916319</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,7 +910,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6798916319</x:v>
+        <x:v>45912.8599707523</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +942,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.8599707523</x:v>
+        <x:v>45906.6663738079</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +974,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6663738079</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1006,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45912.8660346875</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1038,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8660346875</x:v>
+        <x:v>45912.8785739236</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1064,38 +1055,6 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:20">
-      <x:c r="A15" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E15" s="3">
-        <x:v>45912.8785739236</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s"/>
-      <x:c r="G15" s="2" t="s"/>
-      <x:c r="H15" s="2" t="s"/>
-      <x:c r="I15" s="2" t="s"/>
-      <x:c r="J15" s="2" t="s"/>
-      <x:c r="K15" s="2" t="s"/>
-      <x:c r="L15" s="2" t="s"/>
-      <x:c r="M15" s="2" t="s"/>
-      <x:c r="N15" s="2" t="s"/>
-      <x:c r="O15" s="2" t="s"/>
-      <x:c r="P15" s="2" t="s"/>
-      <x:c r="Q15" s="2" t="s"/>
-      <x:c r="R15" s="2" t="s"/>
-      <x:c r="S15" s="2" t="s"/>
-      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35883.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35883.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Omar Wael Ali Omar </x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>لوجينا شوقي أحمد شحاته</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lujina Shawki Ahmed Shehata</x:t>
   </x:si>
   <x:si>
     <x:t>1220191</x:t>
@@ -263,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -846,7 +837,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.8661060185</x:v>
+        <x:v>45906.6798916319</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -878,7 +869,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6798916319</x:v>
+        <x:v>45912.8599707523</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -910,7 +901,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.8599707523</x:v>
+        <x:v>45906.6663738079</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -942,7 +933,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6663738079</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -974,7 +965,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45912.8660346875</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,7 +997,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.8660346875</x:v>
+        <x:v>45912.8785739236</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1023,38 +1014,6 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:20">
-      <x:c r="A14" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E14" s="3">
-        <x:v>45912.8785739236</x:v>
-      </x:c>
-      <x:c r="F14" s="2" t="s"/>
-      <x:c r="G14" s="2" t="s"/>
-      <x:c r="H14" s="2" t="s"/>
-      <x:c r="I14" s="2" t="s"/>
-      <x:c r="J14" s="2" t="s"/>
-      <x:c r="K14" s="2" t="s"/>
-      <x:c r="L14" s="2" t="s"/>
-      <x:c r="M14" s="2" t="s"/>
-      <x:c r="N14" s="2" t="s"/>
-      <x:c r="O14" s="2" t="s"/>
-      <x:c r="P14" s="2" t="s"/>
-      <x:c r="Q14" s="2" t="s"/>
-      <x:c r="R14" s="2" t="s"/>
-      <x:c r="S14" s="2" t="s"/>
-      <x:c r="T14" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35883.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35883.xlsx
@@ -111,7 +111,7 @@
     <x:t>محمد هاني فوزي محمد الخطيب</x:t>
   </x:si>
   <x:si>
-    <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+    <x:t>Mohammed Hany Fawzy Mohammed Alkhateeb</x:t>
   </x:si>
   <x:si>
     <x:t>1220022</x:t>
@@ -563,7 +563,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.580625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="47.760625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.950625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS306_Tutorial-35883.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35883.xlsx
@@ -66,7 +66,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1220111</x:t>
@@ -75,7 +75,7 @@
     <x:t>عبدالرحمن سامح عبد العظيم محمد على</x:t>
   </x:si>
   <x:si>
-    <x:t>abdelrahman sameh abdelazeem</x:t>
+    <x:t>ABDELRAHMAN SAMEH ABDELAZEEM MOHAMED ALY</x:t>
   </x:si>
   <x:si>
     <x:t>1230221</x:t>
@@ -563,7 +563,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.580625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.950625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.650625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS306_Tutorial-35883.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35883.xlsx
@@ -66,7 +66,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEK DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1220111</x:t>
@@ -563,7 +563,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.580625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="47.650625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.330625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
